--- a/src/main/resources/templates/RuleMessage.xlsx
+++ b/src/main/resources/templates/RuleMessage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\pos-rule-demo\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2055B97B-35F8-457B-8E63-00C4F80E1825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0EC082-2515-4A6E-9FF9-79B4114EA624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5600" yWindow="3700" windowWidth="28800" windowHeight="15380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <t>P001</t>
   </si>
   <si>
-    <t>#rsco.planCode + ',' + #rsco.clientIdent + ',' + #nbErrDesc</t>
+    <t>#rsco?.planCode + ',' + #rsco?.clientIdent + ',' + #nbErrDesc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -392,7 +392,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
